--- a/Basededados/brasila_Regular_season_estatisticas.xlsx
+++ b/Basededados/brasila_Regular_season_estatisticas.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG23"/>
+  <dimension ref="A1:AG43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2755,6 +2755,2066 @@
         <v>207</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>vs América (MG)</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>28</v>
+      </c>
+      <c r="D24" t="n">
+        <v>275</v>
+      </c>
+      <c r="E24" t="n">
+        <v>56</v>
+      </c>
+      <c r="F24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G24" t="n">
+        <v>77</v>
+      </c>
+      <c r="H24" t="n">
+        <v>630</v>
+      </c>
+      <c r="I24" t="n">
+        <v>7</v>
+      </c>
+      <c r="J24" t="n">
+        <v>17</v>
+      </c>
+      <c r="K24" t="n">
+        <v>12</v>
+      </c>
+      <c r="L24" t="n">
+        <v>29</v>
+      </c>
+      <c r="M24" t="n">
+        <v>16</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2</v>
+      </c>
+      <c r="P24" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="T24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U24" t="n">
+        <v>209</v>
+      </c>
+      <c r="V24" t="n">
+        <v>154</v>
+      </c>
+      <c r="W24" t="n">
+        <v>319</v>
+      </c>
+      <c r="X24" t="n">
+        <v>243</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>171</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>414</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>229</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>187</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>135</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>322</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>164</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>vs Atl Paranaense</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>26</v>
+      </c>
+      <c r="D25" t="n">
+        <v>281</v>
+      </c>
+      <c r="E25" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="F25" t="n">
+        <v>7</v>
+      </c>
+      <c r="G25" t="n">
+        <v>77</v>
+      </c>
+      <c r="H25" t="n">
+        <v>630</v>
+      </c>
+      <c r="I25" t="n">
+        <v>7</v>
+      </c>
+      <c r="J25" t="n">
+        <v>9</v>
+      </c>
+      <c r="K25" t="n">
+        <v>6</v>
+      </c>
+      <c r="L25" t="n">
+        <v>15</v>
+      </c>
+      <c r="M25" t="n">
+        <v>8</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="T25" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="U25" t="n">
+        <v>143</v>
+      </c>
+      <c r="V25" t="n">
+        <v>116</v>
+      </c>
+      <c r="W25" t="n">
+        <v>257</v>
+      </c>
+      <c r="X25" t="n">
+        <v>129</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>86</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>214</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>114</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>200</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>116</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>99</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>215</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>105</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>vs Atlético Mineiro</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" t="n">
+        <v>267</v>
+      </c>
+      <c r="E26" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7</v>
+      </c>
+      <c r="G26" t="n">
+        <v>77</v>
+      </c>
+      <c r="H26" t="n">
+        <v>630</v>
+      </c>
+      <c r="I26" t="n">
+        <v>7</v>
+      </c>
+      <c r="J26" t="n">
+        <v>6</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4</v>
+      </c>
+      <c r="L26" t="n">
+        <v>10</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T26" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U26" t="n">
+        <v>99</v>
+      </c>
+      <c r="V26" t="n">
+        <v>96</v>
+      </c>
+      <c r="W26" t="n">
+        <v>229</v>
+      </c>
+      <c r="X26" t="n">
+        <v>86</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>57</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>143</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>71</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>129</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>92</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>152</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>vs Bahia</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>24</v>
+      </c>
+      <c r="D27" t="n">
+        <v>268</v>
+      </c>
+      <c r="E27" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7</v>
+      </c>
+      <c r="G27" t="n">
+        <v>77</v>
+      </c>
+      <c r="H27" t="n">
+        <v>630</v>
+      </c>
+      <c r="I27" t="n">
+        <v>7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>12</v>
+      </c>
+      <c r="K27" t="n">
+        <v>7</v>
+      </c>
+      <c r="L27" t="n">
+        <v>19</v>
+      </c>
+      <c r="M27" t="n">
+        <v>11</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="S27" t="n">
+        <v>8</v>
+      </c>
+      <c r="T27" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="U27" t="n">
+        <v>134</v>
+      </c>
+      <c r="V27" t="n">
+        <v>133</v>
+      </c>
+      <c r="W27" t="n">
+        <v>238</v>
+      </c>
+      <c r="X27" t="n">
+        <v>171</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>271</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>157</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>257</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>126</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>76</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>202</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>115</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>vs Botafogo (RJ)</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>25</v>
+      </c>
+      <c r="D28" t="n">
+        <v>285</v>
+      </c>
+      <c r="E28" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="F28" t="n">
+        <v>7</v>
+      </c>
+      <c r="G28" t="n">
+        <v>77</v>
+      </c>
+      <c r="H28" t="n">
+        <v>630</v>
+      </c>
+      <c r="I28" t="n">
+        <v>7</v>
+      </c>
+      <c r="J28" t="n">
+        <v>6</v>
+      </c>
+      <c r="K28" t="n">
+        <v>5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>11</v>
+      </c>
+      <c r="M28" t="n">
+        <v>6</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="S28" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="T28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U28" t="n">
+        <v>182</v>
+      </c>
+      <c r="V28" t="n">
+        <v>146</v>
+      </c>
+      <c r="W28" t="n">
+        <v>297</v>
+      </c>
+      <c r="X28" t="n">
+        <v>86</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>71</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>157</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>86</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>157</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>137</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>122</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>259</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>137</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>vs Bragantino</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>24</v>
+      </c>
+      <c r="D29" t="n">
+        <v>280</v>
+      </c>
+      <c r="E29" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="F29" t="n">
+        <v>7</v>
+      </c>
+      <c r="G29" t="n">
+        <v>77</v>
+      </c>
+      <c r="H29" t="n">
+        <v>630</v>
+      </c>
+      <c r="I29" t="n">
+        <v>7</v>
+      </c>
+      <c r="J29" t="n">
+        <v>11</v>
+      </c>
+      <c r="K29" t="n">
+        <v>6</v>
+      </c>
+      <c r="L29" t="n">
+        <v>17</v>
+      </c>
+      <c r="M29" t="n">
+        <v>8</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3</v>
+      </c>
+      <c r="O29" t="n">
+        <v>3</v>
+      </c>
+      <c r="P29" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>10</v>
+      </c>
+      <c r="S29" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="T29" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U29" t="n">
+        <v>140</v>
+      </c>
+      <c r="V29" t="n">
+        <v>88</v>
+      </c>
+      <c r="W29" t="n">
+        <v>208</v>
+      </c>
+      <c r="X29" t="n">
+        <v>157</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>86</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>243</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>114</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>200</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>143</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>89</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>232</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>111</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>vs Corinthians</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>27</v>
+      </c>
+      <c r="D30" t="n">
+        <v>288</v>
+      </c>
+      <c r="E30" t="n">
+        <v>56</v>
+      </c>
+      <c r="F30" t="n">
+        <v>6</v>
+      </c>
+      <c r="G30" t="n">
+        <v>66</v>
+      </c>
+      <c r="H30" t="n">
+        <v>540</v>
+      </c>
+      <c r="I30" t="n">
+        <v>6</v>
+      </c>
+      <c r="J30" t="n">
+        <v>11</v>
+      </c>
+      <c r="K30" t="n">
+        <v>7</v>
+      </c>
+      <c r="L30" t="n">
+        <v>18</v>
+      </c>
+      <c r="M30" t="n">
+        <v>10</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="T30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U30" t="n">
+        <v>111</v>
+      </c>
+      <c r="V30" t="n">
+        <v>127</v>
+      </c>
+      <c r="W30" t="n">
+        <v>282</v>
+      </c>
+      <c r="X30" t="n">
+        <v>183</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>117</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>300</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>167</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>283</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>124</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>199</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>vs Coritiba</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>26</v>
+      </c>
+      <c r="D31" t="n">
+        <v>275</v>
+      </c>
+      <c r="E31" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="F31" t="n">
+        <v>7</v>
+      </c>
+      <c r="G31" t="n">
+        <v>77</v>
+      </c>
+      <c r="H31" t="n">
+        <v>630</v>
+      </c>
+      <c r="I31" t="n">
+        <v>7</v>
+      </c>
+      <c r="J31" t="n">
+        <v>15</v>
+      </c>
+      <c r="K31" t="n">
+        <v>10</v>
+      </c>
+      <c r="L31" t="n">
+        <v>25</v>
+      </c>
+      <c r="M31" t="n">
+        <v>13</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2</v>
+      </c>
+      <c r="P31" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="S31" t="n">
+        <v>10</v>
+      </c>
+      <c r="T31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U31" t="n">
+        <v>175</v>
+      </c>
+      <c r="V31" t="n">
+        <v>121</v>
+      </c>
+      <c r="W31" t="n">
+        <v>355</v>
+      </c>
+      <c r="X31" t="n">
+        <v>214</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>143</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>357</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>186</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>329</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>165</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>107</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>272</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>143</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>vs Cruzeiro</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>23</v>
+      </c>
+      <c r="D32" t="n">
+        <v>279</v>
+      </c>
+      <c r="E32" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="F32" t="n">
+        <v>6</v>
+      </c>
+      <c r="G32" t="n">
+        <v>66</v>
+      </c>
+      <c r="H32" t="n">
+        <v>540</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3</v>
+      </c>
+      <c r="L32" t="n">
+        <v>8</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="S32" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="T32" t="n">
+        <v>6</v>
+      </c>
+      <c r="U32" t="n">
+        <v>136</v>
+      </c>
+      <c r="V32" t="n">
+        <v>89</v>
+      </c>
+      <c r="W32" t="n">
+        <v>217</v>
+      </c>
+      <c r="X32" t="n">
+        <v>83</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>133</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>83</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>133</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>126</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>226</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>vs Cuiabá</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>21</v>
+      </c>
+      <c r="D33" t="n">
+        <v>289</v>
+      </c>
+      <c r="E33" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="F33" t="n">
+        <v>6</v>
+      </c>
+      <c r="G33" t="n">
+        <v>66</v>
+      </c>
+      <c r="H33" t="n">
+        <v>540</v>
+      </c>
+      <c r="I33" t="n">
+        <v>6</v>
+      </c>
+      <c r="J33" t="n">
+        <v>12</v>
+      </c>
+      <c r="K33" t="n">
+        <v>10</v>
+      </c>
+      <c r="L33" t="n">
+        <v>22</v>
+      </c>
+      <c r="M33" t="n">
+        <v>11</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="T33" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="U33" t="n">
+        <v>171</v>
+      </c>
+      <c r="V33" t="n">
+        <v>126</v>
+      </c>
+      <c r="W33" t="n">
+        <v>247</v>
+      </c>
+      <c r="X33" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>167</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>367</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>183</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>350</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>169</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>130</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>299</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>156</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>vs Flamengo</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>23</v>
+      </c>
+      <c r="D34" t="n">
+        <v>277</v>
+      </c>
+      <c r="E34" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="F34" t="n">
+        <v>6</v>
+      </c>
+      <c r="G34" t="n">
+        <v>66</v>
+      </c>
+      <c r="H34" t="n">
+        <v>540</v>
+      </c>
+      <c r="I34" t="n">
+        <v>6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>9</v>
+      </c>
+      <c r="K34" t="n">
+        <v>7</v>
+      </c>
+      <c r="L34" t="n">
+        <v>16</v>
+      </c>
+      <c r="M34" t="n">
+        <v>8</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T34" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="U34" t="n">
+        <v>99</v>
+      </c>
+      <c r="V34" t="n">
+        <v>104</v>
+      </c>
+      <c r="W34" t="n">
+        <v>183</v>
+      </c>
+      <c r="X34" t="n">
+        <v>150</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>117</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>267</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>133</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>250</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>104</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>73</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>177</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>91</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>vs Fluminense</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>24</v>
+      </c>
+      <c r="D35" t="n">
+        <v>286</v>
+      </c>
+      <c r="E35" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="F35" t="n">
+        <v>7</v>
+      </c>
+      <c r="G35" t="n">
+        <v>77</v>
+      </c>
+      <c r="H35" t="n">
+        <v>630</v>
+      </c>
+      <c r="I35" t="n">
+        <v>7</v>
+      </c>
+      <c r="J35" t="n">
+        <v>6</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3</v>
+      </c>
+      <c r="L35" t="n">
+        <v>9</v>
+      </c>
+      <c r="M35" t="n">
+        <v>6</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="T35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U35" t="n">
+        <v>201</v>
+      </c>
+      <c r="V35" t="n">
+        <v>114</v>
+      </c>
+      <c r="W35" t="n">
+        <v>258</v>
+      </c>
+      <c r="X35" t="n">
+        <v>86</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>43</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>129</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>86</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>129</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>177</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>299</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>166</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>vs Fortaleza</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>24</v>
+      </c>
+      <c r="D36" t="n">
+        <v>275</v>
+      </c>
+      <c r="E36" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="F36" t="n">
+        <v>7</v>
+      </c>
+      <c r="G36" t="n">
+        <v>77</v>
+      </c>
+      <c r="H36" t="n">
+        <v>630</v>
+      </c>
+      <c r="I36" t="n">
+        <v>7</v>
+      </c>
+      <c r="J36" t="n">
+        <v>6</v>
+      </c>
+      <c r="K36" t="n">
+        <v>5</v>
+      </c>
+      <c r="L36" t="n">
+        <v>11</v>
+      </c>
+      <c r="M36" t="n">
+        <v>6</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6</v>
+      </c>
+      <c r="S36" t="n">
+        <v>6</v>
+      </c>
+      <c r="T36" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="U36" t="n">
+        <v>109</v>
+      </c>
+      <c r="V36" t="n">
+        <v>131</v>
+      </c>
+      <c r="W36" t="n">
+        <v>273</v>
+      </c>
+      <c r="X36" t="n">
+        <v>86</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>71</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>157</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>86</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>157</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>85</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>70</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>155</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>85</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>vs Goiás</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>26</v>
+      </c>
+      <c r="D37" t="n">
+        <v>277</v>
+      </c>
+      <c r="E37" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="F37" t="n">
+        <v>7</v>
+      </c>
+      <c r="G37" t="n">
+        <v>77</v>
+      </c>
+      <c r="H37" t="n">
+        <v>630</v>
+      </c>
+      <c r="I37" t="n">
+        <v>7</v>
+      </c>
+      <c r="J37" t="n">
+        <v>12</v>
+      </c>
+      <c r="K37" t="n">
+        <v>7</v>
+      </c>
+      <c r="L37" t="n">
+        <v>19</v>
+      </c>
+      <c r="M37" t="n">
+        <v>10</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2</v>
+      </c>
+      <c r="P37" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="S37" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="T37" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="U37" t="n">
+        <v>158</v>
+      </c>
+      <c r="V37" t="n">
+        <v>124</v>
+      </c>
+      <c r="W37" t="n">
+        <v>331</v>
+      </c>
+      <c r="X37" t="n">
+        <v>171</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>271</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>143</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>243</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>154</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>94</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>248</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>132</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>vs Grêmio</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>26</v>
+      </c>
+      <c r="D38" t="n">
+        <v>276</v>
+      </c>
+      <c r="E38" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="F38" t="n">
+        <v>6</v>
+      </c>
+      <c r="G38" t="n">
+        <v>66</v>
+      </c>
+      <c r="H38" t="n">
+        <v>540</v>
+      </c>
+      <c r="I38" t="n">
+        <v>6</v>
+      </c>
+      <c r="J38" t="n">
+        <v>9</v>
+      </c>
+      <c r="K38" t="n">
+        <v>6</v>
+      </c>
+      <c r="L38" t="n">
+        <v>15</v>
+      </c>
+      <c r="M38" t="n">
+        <v>8</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="S38" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="T38" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="U38" t="n">
+        <v>167</v>
+      </c>
+      <c r="V38" t="n">
+        <v>129</v>
+      </c>
+      <c r="W38" t="n">
+        <v>289</v>
+      </c>
+      <c r="X38" t="n">
+        <v>150</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>250</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>133</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>233</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>168</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>122</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>291</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>156</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>vs Internacional</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>26</v>
+      </c>
+      <c r="D39" t="n">
+        <v>281</v>
+      </c>
+      <c r="E39" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="F39" t="n">
+        <v>6</v>
+      </c>
+      <c r="G39" t="n">
+        <v>66</v>
+      </c>
+      <c r="H39" t="n">
+        <v>540</v>
+      </c>
+      <c r="I39" t="n">
+        <v>6</v>
+      </c>
+      <c r="J39" t="n">
+        <v>8</v>
+      </c>
+      <c r="K39" t="n">
+        <v>6</v>
+      </c>
+      <c r="L39" t="n">
+        <v>14</v>
+      </c>
+      <c r="M39" t="n">
+        <v>8</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="S39" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="T39" t="n">
+        <v>5</v>
+      </c>
+      <c r="U39" t="n">
+        <v>127</v>
+      </c>
+      <c r="V39" t="n">
+        <v>91</v>
+      </c>
+      <c r="W39" t="n">
+        <v>237</v>
+      </c>
+      <c r="X39" t="n">
+        <v>133</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>233</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>133</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>233</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>145</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>83</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>228</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>129</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>vs Palmeiras</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>26</v>
+      </c>
+      <c r="D40" t="n">
+        <v>269</v>
+      </c>
+      <c r="E40" t="n">
+        <v>42</v>
+      </c>
+      <c r="F40" t="n">
+        <v>7</v>
+      </c>
+      <c r="G40" t="n">
+        <v>77</v>
+      </c>
+      <c r="H40" t="n">
+        <v>630</v>
+      </c>
+      <c r="I40" t="n">
+        <v>7</v>
+      </c>
+      <c r="J40" t="n">
+        <v>5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4</v>
+      </c>
+      <c r="L40" t="n">
+        <v>9</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T40" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U40" t="n">
+        <v>94</v>
+      </c>
+      <c r="V40" t="n">
+        <v>112</v>
+      </c>
+      <c r="W40" t="n">
+        <v>215</v>
+      </c>
+      <c r="X40" t="n">
+        <v>71</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>57</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>129</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>71</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>129</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>74</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>134</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>74</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>vs Santos</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>29</v>
+      </c>
+      <c r="D41" t="n">
+        <v>277</v>
+      </c>
+      <c r="E41" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="F41" t="n">
+        <v>7</v>
+      </c>
+      <c r="G41" t="n">
+        <v>77</v>
+      </c>
+      <c r="H41" t="n">
+        <v>630</v>
+      </c>
+      <c r="I41" t="n">
+        <v>7</v>
+      </c>
+      <c r="J41" t="n">
+        <v>5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3</v>
+      </c>
+      <c r="L41" t="n">
+        <v>8</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="T41" t="n">
+        <v>6</v>
+      </c>
+      <c r="U41" t="n">
+        <v>147</v>
+      </c>
+      <c r="V41" t="n">
+        <v>140</v>
+      </c>
+      <c r="W41" t="n">
+        <v>343</v>
+      </c>
+      <c r="X41" t="n">
+        <v>71</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>43</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>114</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>71</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>114</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>135</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>221</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>124</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>vs São Paulo</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>23</v>
+      </c>
+      <c r="D42" t="n">
+        <v>284</v>
+      </c>
+      <c r="E42" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="F42" t="n">
+        <v>7</v>
+      </c>
+      <c r="G42" t="n">
+        <v>77</v>
+      </c>
+      <c r="H42" t="n">
+        <v>630</v>
+      </c>
+      <c r="I42" t="n">
+        <v>7</v>
+      </c>
+      <c r="J42" t="n">
+        <v>6</v>
+      </c>
+      <c r="K42" t="n">
+        <v>5</v>
+      </c>
+      <c r="L42" t="n">
+        <v>11</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="S42" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="T42" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="U42" t="n">
+        <v>122</v>
+      </c>
+      <c r="V42" t="n">
+        <v>122</v>
+      </c>
+      <c r="W42" t="n">
+        <v>257</v>
+      </c>
+      <c r="X42" t="n">
+        <v>86</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>71</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>157</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>71</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>143</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>76</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>186</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>98</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>vs Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>23</v>
+      </c>
+      <c r="D43" t="n">
+        <v>273</v>
+      </c>
+      <c r="E43" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="F43" t="n">
+        <v>7</v>
+      </c>
+      <c r="G43" t="n">
+        <v>77</v>
+      </c>
+      <c r="H43" t="n">
+        <v>630</v>
+      </c>
+      <c r="I43" t="n">
+        <v>7</v>
+      </c>
+      <c r="J43" t="n">
+        <v>11</v>
+      </c>
+      <c r="K43" t="n">
+        <v>8</v>
+      </c>
+      <c r="L43" t="n">
+        <v>19</v>
+      </c>
+      <c r="M43" t="n">
+        <v>11</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="S43" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="T43" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="U43" t="n">
+        <v>159</v>
+      </c>
+      <c r="V43" t="n">
+        <v>134</v>
+      </c>
+      <c r="W43" t="n">
+        <v>288</v>
+      </c>
+      <c r="X43" t="n">
+        <v>157</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>114</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>271</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>157</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>271</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>133</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>94</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>227</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>133</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>227</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="F1:I1"/>
